--- a/Projects Docs/Requirements V1.1.xlsx
+++ b/Projects Docs/Requirements V1.1.xlsx
@@ -183,6 +183,18 @@
     </r>
   </si>
   <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Not a requirement</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The car shall </t>
     </r>
@@ -194,7 +206,506 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>detect lane lines</t>
+      <t xml:space="preserve">detect major road and traffic signs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>on an open straight road.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-202</t>
+  </si>
+  <si>
+    <t>Major signs</t>
+  </si>
+  <si>
+    <t>REQ-203</t>
+  </si>
+  <si>
+    <t>Pracautionary signs</t>
+  </si>
+  <si>
+    <t>REQ-204</t>
+  </si>
+  <si>
+    <t>Traffic light signals</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system shall detect </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>traffic light signals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on the road.</t>
+    </r>
+  </si>
+  <si>
+    <t>Speed limit signs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system shall detect </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>speed limit signs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on a particular lane.</t>
+    </r>
+  </si>
+  <si>
+    <t>Digital display signs</t>
+  </si>
+  <si>
+    <t>Night time detection</t>
+  </si>
+  <si>
+    <t>Detection Periods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system shall only capture signs and signals </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>during day time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> when there is sunlight available. </t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-205</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system shall </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ignore digital display signs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The system shall</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ignore signs and signals during the night</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ - 301</t>
+  </si>
+  <si>
+    <t>Modularity and portability</t>
+  </si>
+  <si>
+    <t>Hardware Requirement</t>
+  </si>
+  <si>
+    <r>
+      <t>The hardware system used for the detection process shall be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> modular and portable  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>to fit in all major sizes of car.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ - 302</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>REQ - 303</t>
+  </si>
+  <si>
+    <r>
+      <t>The camera used in the system shall capture at the rate of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 24 frames per second</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>REQ - 304</t>
+  </si>
+  <si>
+    <t>Capturing rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The camera used in the system </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>shall capture signs regardless of speed of the car</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system shall be powered by a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>separate battery.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-103</t>
+  </si>
+  <si>
+    <t>REQ-206</t>
+  </si>
+  <si>
+    <t>REQ - 207</t>
+  </si>
+  <si>
+    <t>REQ-208</t>
+  </si>
+  <si>
+    <t>Implemented various filtering techniques</t>
+  </si>
+  <si>
+    <t>As of now Canny filter seems to be more effective</t>
+  </si>
+  <si>
+    <t>Accquired the necessary data sets. Beginning to work on training the model</t>
+  </si>
+  <si>
+    <t>REQ-104</t>
+  </si>
+  <si>
+    <t>TE1001</t>
+  </si>
+  <si>
+    <t>TE1002</t>
+  </si>
+  <si>
+    <t>TE1003</t>
+  </si>
+  <si>
+    <t>TE2001</t>
+  </si>
+  <si>
+    <t>TE2002</t>
+  </si>
+  <si>
+    <t>TE2003</t>
+  </si>
+  <si>
+    <t>TE2004</t>
+  </si>
+  <si>
+    <t>TE2005</t>
+  </si>
+  <si>
+    <t>TE2006</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system shall </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mask the background noises</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to accurately detect the lane line and sign boards.</t>
+    </r>
+  </si>
+  <si>
+    <t>Masking of noises</t>
+  </si>
+  <si>
+    <t>REQ-105</t>
+  </si>
+  <si>
+    <t>Object detection</t>
+  </si>
+  <si>
+    <r>
+      <t>The system shall</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> specifically detect the lane </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>which it is travelling and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ignore all background objects </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>other than the lane lines and sign boards.</t>
+    </r>
+  </si>
+  <si>
+    <t>Making the requirements more atomic that is splitting down the requirements.</t>
+  </si>
+  <si>
+    <t>Background noises have been masked to an extent.</t>
+  </si>
+  <si>
+    <t>Not a main requirement</t>
+  </si>
+  <si>
+    <t>Bill of materials has been made.</t>
+  </si>
+  <si>
+    <r>
+      <t>Major road signs such as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> stop sign, turn signs, one way signs s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hall be detected by the system.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pracautionary signs such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">keep to a lane signs, slow down signs, caution signs and other such signs on any shape of the sign boards </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>shall be detected by the system.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lane lines have been isolated.</t>
+  </si>
+  <si>
+    <t>Non Functional</t>
+  </si>
+  <si>
+    <t>REQ-106</t>
+  </si>
+  <si>
+    <t>Detections under the conditions of shadows</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The line detection system in the car shall </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ignore objects under the influence of shadows</t>
+    </r>
+  </si>
+  <si>
+    <t>Detection with the effect of shadows shall be incorporated at a later date when the software is refined.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The car shall </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>detect lane lines that is middle, side and dotted lines</t>
     </r>
     <r>
       <rPr>
@@ -205,517 +716,6 @@
       </rPr>
       <t xml:space="preserve"> on the roads.</t>
     </r>
-  </si>
-  <si>
-    <t>__</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Not a requirement</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The car shall </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">detect major road and traffic signs </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>on an open straight road.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-202</t>
-  </si>
-  <si>
-    <t>Major signs</t>
-  </si>
-  <si>
-    <t>REQ-203</t>
-  </si>
-  <si>
-    <t>Pracautionary signs</t>
-  </si>
-  <si>
-    <t>REQ-204</t>
-  </si>
-  <si>
-    <t>Traffic light signals</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The system shall detect </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>traffic light signals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> on the road.</t>
-    </r>
-  </si>
-  <si>
-    <t>Speed limit signs</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The system shall detect </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>speed limit signs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> on a particular lane.</t>
-    </r>
-  </si>
-  <si>
-    <t>Digital display signs</t>
-  </si>
-  <si>
-    <t>Night time detection</t>
-  </si>
-  <si>
-    <t>Detection Periods</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The system shall only capture signs and signals </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>during day time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> when there is sunlight available. </t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-205</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The system shall </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ignore digital display signs.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The system shall</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ignore signs and signals during the night</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ - 301</t>
-  </si>
-  <si>
-    <t>Modularity and portability</t>
-  </si>
-  <si>
-    <t>Hardware Requirement</t>
-  </si>
-  <si>
-    <r>
-      <t>The hardware system used for the detection process shall be</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> modular and portable  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>to fit in all major sizes of car.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ - 302</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>REQ - 303</t>
-  </si>
-  <si>
-    <r>
-      <t>The camera used in the system shall capture at the rate of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 24 frames per second</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>REQ - 304</t>
-  </si>
-  <si>
-    <t>Capturing rate</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The camera used in the system </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>shall capture signs regardless of speed of the car</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The system shall be powered by a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>separate battery.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-103</t>
-  </si>
-  <si>
-    <t>REQ-206</t>
-  </si>
-  <si>
-    <t>REQ - 207</t>
-  </si>
-  <si>
-    <t>REQ-208</t>
-  </si>
-  <si>
-    <t>Implemented various filtering techniques</t>
-  </si>
-  <si>
-    <t>As of now Canny filter seems to be more effective</t>
-  </si>
-  <si>
-    <t>Accquired the necessary data sets. Beginning to work on training the model</t>
-  </si>
-  <si>
-    <t>REQ-104</t>
-  </si>
-  <si>
-    <t>TE1001</t>
-  </si>
-  <si>
-    <t>TE1002</t>
-  </si>
-  <si>
-    <t>TE1003</t>
-  </si>
-  <si>
-    <t>TE2001</t>
-  </si>
-  <si>
-    <t>TE2002</t>
-  </si>
-  <si>
-    <t>TE2003</t>
-  </si>
-  <si>
-    <t>TE2004</t>
-  </si>
-  <si>
-    <t>TE2005</t>
-  </si>
-  <si>
-    <t>TE2006</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The system shall </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mask the background noises</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> to accurately detect the lane line and sign boards.</t>
-    </r>
-  </si>
-  <si>
-    <t>Masking of noises</t>
-  </si>
-  <si>
-    <t>REQ-105</t>
-  </si>
-  <si>
-    <t>Object detection</t>
-  </si>
-  <si>
-    <r>
-      <t>The system shall</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> specifically detect the lane </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>which it is travelling and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ignore all background objects </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>other than the lane lines and sign boards.</t>
-    </r>
-  </si>
-  <si>
-    <t>Making the requirements more atomic that is splitting down the requirements.</t>
-  </si>
-  <si>
-    <t>Background noises have been masked to an extent.</t>
-  </si>
-  <si>
-    <t>Not a main requirement</t>
-  </si>
-  <si>
-    <t>Bill of materials has been made.</t>
-  </si>
-  <si>
-    <r>
-      <t>Major road signs such as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> stop sign, turn signs, one way signs s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hall be detected by the system.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pracautionary signs such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">keep to a lane signs, slow down signs, caution signs and other such signs on any shape of the sign boards </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>shall be detected by the system.</t>
-    </r>
-  </si>
-  <si>
-    <t>Lane lines have been isolated.</t>
-  </si>
-  <si>
-    <t>Non Functional</t>
-  </si>
-  <si>
-    <t>REQ-106</t>
-  </si>
-  <si>
-    <t>Detections under the conditions of shadows</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The line detection system in the car shall </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ignore objects under the influence of shadows</t>
-    </r>
-  </si>
-  <si>
-    <t>Detection with the effect of shadows shall be incorporated at a later date when the software is refined.</t>
   </si>
 </sst>
 </file>
@@ -741,6 +741,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1560,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>34</v>
@@ -1747,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1807,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>29</v>
@@ -1815,16 +1816,16 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="26">
         <v>0.1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>25</v>
@@ -1847,16 +1848,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>25</v>
@@ -1864,13 +1865,13 @@
     </row>
     <row r="4" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>29</v>
@@ -1879,16 +1880,16 @@
         <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="27">
         <v>0.1</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>25</v>
@@ -1896,13 +1897,13 @@
     </row>
     <row r="5" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>29</v>
@@ -1911,16 +1912,16 @@
         <v>5</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="27">
         <v>0.1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>25</v>
@@ -1928,7 +1929,7 @@
     </row>
     <row r="6" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>36</v>
@@ -1937,55 +1938,55 @@
         <v>39</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1996,7 +1997,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>35</v>
@@ -2005,16 +2006,16 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="27">
         <v>0.1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>25</v>
@@ -2022,13 +2023,13 @@
     </row>
     <row r="9" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>47</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>35</v>
@@ -2037,10 +2038,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -2052,13 +2053,13 @@
     </row>
     <row r="10" spans="1:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>35</v>
@@ -2067,10 +2068,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -2082,13 +2083,13 @@
     </row>
     <row r="11" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="C11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>35</v>
@@ -2097,10 +2098,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -2112,13 +2113,13 @@
     </row>
     <row r="12" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>35</v>
@@ -2127,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -2142,43 +2143,43 @@
     </row>
     <row r="13" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>35</v>
@@ -2187,10 +2188,10 @@
         <v>4</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -2202,13 +2203,13 @@
     </row>
     <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>35</v>
@@ -2217,28 +2218,28 @@
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>63</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>30</v>
@@ -2247,28 +2248,28 @@
         <v>5</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>67</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>30</v>
@@ -2277,7 +2278,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>31</v>
@@ -2286,21 +2287,21 @@
         <v>0.1</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>30</v>
@@ -2309,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>32</v>
@@ -2319,18 +2320,18 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>30</v>
@@ -2339,17 +2340,17 @@
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
